--- a/metadata/E5_QC.xlsx
+++ b/metadata/E5_QC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/timeseries/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F92AA3-A1DA-8F4F-AD64-B33EC34C894B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5366FC-3E05-9149-8E63-2750D326C7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="480" windowWidth="21400" windowHeight="16500" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
+    <workbookView xWindow="-36180" yWindow="-1640" windowWidth="32660" windowHeight="18200" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Color key" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="190">
   <si>
     <t>ANSWER</t>
   </si>
@@ -597,6 +597,18 @@
   <si>
     <t xml:space="preserve">Not a mystery colony - was it processed for symb? Cannot find in notebook.  Seems that it wasn't processed. </t>
   </si>
+  <si>
+    <t>ACR-370</t>
+  </si>
+  <si>
+    <t>ACR-376</t>
+  </si>
+  <si>
+    <t>POC-232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listed at POR251 in this time point </t>
+  </si>
 </sst>
 </file>
 
@@ -15281,12 +15293,5090 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4259132-52BB-2B40-86FD-2A50319D60A8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="P125" sqref="P125"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="b">
+        <v>1</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/metadata/E5_QC.xlsx
+++ b/metadata/E5_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/timeseries/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5366FC-3E05-9149-8E63-2750D326C7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43A285-1B57-AB49-94E6-0A79158E5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36180" yWindow="-1640" windowWidth="32660" windowHeight="18200" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
+    <workbookView xWindow="-38400" yWindow="-1940" windowWidth="22860" windowHeight="19760" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Color key" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="201">
   <si>
     <t>ANSWER</t>
   </si>
@@ -609,6 +609,39 @@
   <si>
     <t xml:space="preserve">Listed at POR251 in this time point </t>
   </si>
+  <si>
+    <t>Not sampled except for molecular - so why is it present in TAC??</t>
+  </si>
+  <si>
+    <t>Not on sampled list - typo for protein?</t>
+  </si>
+  <si>
+    <t>Only molecular</t>
+  </si>
+  <si>
+    <t>This molecular sample is actually ACR-389; relabeled in molecular data sheet; ACR-374 wasn't sampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular sample was put in ACR-370 bag; but this isn't in the molecular data sheet - where is it? </t>
+  </si>
+  <si>
+    <t>Not sampeld; One of the four colonies found without tags in Sept 2020 - retagged but couldn't trace identity until genotyped down the line</t>
+  </si>
+  <si>
+    <t>Not sampled; One of the four colonies found without tags in Sept 2020 - retagged but couldn't trace identity until genotyped down the line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on sampled list - typo? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag changed to POC-230; POC-230 not in sample list? </t>
+  </si>
+  <si>
+    <t>Phys frag put in POR-355 bag but 355 not sampled</t>
+  </si>
+  <si>
+    <t>Now POR-296 ; has been referred to as POR_385 before and is same coral; POR-387 is in mystery, relabel these in data as POR-385; resolved</t>
+  </si>
 </sst>
 </file>
 
@@ -15295,80 +15328,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4259132-52BB-2B40-86FD-2A50319D60A8}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="P125" sqref="P125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15403,7 +15440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15438,7 +15475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15473,42 +15510,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15543,7 +15583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15578,7 +15618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15613,42 +15653,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15683,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15718,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15753,7 +15796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15788,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15822,8 +15865,11 @@
       <c r="K15" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15857,8 +15903,11 @@
       <c r="K16" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15893,7 +15942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15928,7 +15977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15962,43 +16011,49 @@
       <c r="K19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16033,42 +16088,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16103,42 +16161,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16172,8 +16233,11 @@
       <c r="K25" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16208,42 +16272,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16278,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16313,7 +16380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16348,77 +16415,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16453,15 +16526,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="9" t="b">
-        <v>0</v>
+      <c r="C34" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -16488,112 +16561,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16627,43 +16709,49 @@
       <c r="K38" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16697,78 +16785,87 @@
       <c r="K40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16803,112 +16900,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16943,7 +17049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16978,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17013,42 +17119,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17083,7 +17192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17118,7 +17227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17153,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17188,7 +17297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17223,7 +17332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17258,7 +17367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17293,7 +17402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17328,7 +17437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17363,7 +17472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17398,42 +17507,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17468,7 +17580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17503,7 +17615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17538,7 +17650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17572,8 +17684,11 @@
       <c r="K65" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17608,7 +17723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -17643,77 +17758,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -17748,7 +17869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -17783,7 +17904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -17817,8 +17938,11 @@
       <c r="K72" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -17853,7 +17977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -17888,7 +18012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17923,7 +18047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17958,7 +18082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -17993,7 +18117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18028,7 +18152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18063,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18658,7 +18782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -18693,7 +18817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -18728,7 +18852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -18763,7 +18887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -18798,7 +18922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -18833,7 +18957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -18868,77 +18992,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -18973,7 +19103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -19007,8 +19137,11 @@
       <c r="K106" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -19043,7 +19176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -19078,7 +19211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -19113,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -19148,7 +19281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -19183,7 +19316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -19218,7 +19351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -19253,7 +19386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -19288,77 +19421,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K115" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -19393,7 +19532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19428,7 +19567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19463,7 +19602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -19498,7 +19637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -19533,7 +19672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -19568,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -19603,42 +19742,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D124" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E124" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K124" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -19673,7 +19815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -19708,7 +19850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -19743,7 +19885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -19778,7 +19920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -19813,7 +19955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -19848,42 +19990,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E131" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K131" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -19918,7 +20063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -19953,7 +20098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -19987,8 +20132,11 @@
       <c r="K134" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -20023,7 +20171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -20058,7 +20206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -20093,7 +20241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -20128,15 +20276,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C139" s="9" t="b">
-        <v>0</v>
+      <c r="C139" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -20144,26 +20292,29 @@
       <c r="E139" t="b">
         <v>1</v>
       </c>
-      <c r="F139" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I139" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -20198,7 +20349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -20233,7 +20384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -20268,7 +20419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -20303,7 +20454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>

--- a/metadata/E5_QC.xlsx
+++ b/metadata/E5_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/timeseries/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43A285-1B57-AB49-94E6-0A79158E5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31FC447-BFAC-5647-A867-59C03295916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1940" windowWidth="22860" windowHeight="19760" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
+    <workbookView xWindow="-37380" yWindow="-2080" windowWidth="22860" windowHeight="19760" activeTab="3" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Color key" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="205">
   <si>
     <t>ANSWER</t>
   </si>
@@ -642,6 +642,18 @@
   <si>
     <t>Now POR-296 ; has been referred to as POR_385 before and is same coral; POR-387 is in mystery, relabel these in data as POR-385; resolved</t>
   </si>
+  <si>
+    <t xml:space="preserve">ACR-256 and ACR-267 bags "swapped" in notebook? </t>
+  </si>
+  <si>
+    <t>There is a POR-85 in the data, typo, in notebook. Resolved</t>
+  </si>
+  <si>
+    <t>In notebook as plate 2 was a typo as "PCO" rather than "POC"; resolved</t>
+  </si>
+  <si>
+    <t>Not sampled for protein</t>
+  </si>
 </sst>
 </file>
 
@@ -10256,9 +10268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77009AC-EDAD-2244-A553-6617E39CB99E}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10267,6 +10279,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="B1" t="s">
         <v>184</v>
       </c>
@@ -13394,7 +13409,7 @@
       <c r="A88">
         <v>50</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C88" t="b">
@@ -13415,7 +13430,7 @@
       <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="I88" s="9" t="b">
+      <c r="I88" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J88" t="b">
@@ -15328,9 +15343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4259132-52BB-2B40-86FD-2A50319D60A8}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15976,6 +15991,9 @@
       <c r="K18" t="b">
         <v>1</v>
       </c>
+      <c r="L18" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -16160,6 +16178,9 @@
       <c r="K23" t="b">
         <v>1</v>
       </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -16341,8 +16362,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
-      <c r="K28" s="9" t="b">
-        <v>0</v>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -18222,7 +18246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -18257,7 +18281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -18292,7 +18316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -18327,11 +18351,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C84" t="b">
@@ -18358,11 +18382,14 @@
       <c r="J84" t="b">
         <v>1</v>
       </c>
-      <c r="K84" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -18397,7 +18424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -18432,7 +18459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -18467,7 +18494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -18502,7 +18529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -18537,7 +18564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -18572,7 +18599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -18607,7 +18634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -18642,7 +18669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -18677,7 +18704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -18712,7 +18739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -18747,7 +18774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -19215,7 +19242,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C109" t="b">
@@ -19242,8 +19269,11 @@
       <c r="J109" t="b">
         <v>1</v>
       </c>
-      <c r="K109" s="9" t="b">
-        <v>0</v>
+      <c r="K109" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">

--- a/metadata/E5_QC.xlsx
+++ b/metadata/E5_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/timeseries/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31FC447-BFAC-5647-A867-59C03295916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE75017-DC8C-544A-90F6-C520F051DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37380" yWindow="-2080" windowWidth="22860" windowHeight="19760" activeTab="3" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
+    <workbookView xWindow="-37380" yWindow="-2080" windowWidth="25040" windowHeight="19760" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Color key" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="211">
   <si>
     <t>ANSWER</t>
   </si>
@@ -637,9 +637,6 @@
     <t xml:space="preserve">Tag changed to POC-230; POC-230 not in sample list? </t>
   </si>
   <si>
-    <t>Phys frag put in POR-355 bag but 355 not sampled</t>
-  </si>
-  <si>
     <t>Now POR-296 ; has been referred to as POR_385 before and is same coral; POR-387 is in mystery, relabel these in data as POR-385; resolved</t>
   </si>
   <si>
@@ -653,6 +650,27 @@
   </si>
   <si>
     <t>Not sampled for protein</t>
+  </si>
+  <si>
+    <t>ACR-219 might be a typo - check</t>
+  </si>
+  <si>
+    <t>POC-76 might be a typo - check</t>
+  </si>
+  <si>
+    <t>POC-242 might be a typo - check</t>
+  </si>
+  <si>
+    <t>Phys frag put in POR-355 bag but 355 not sampled; maybe POR-555 is a typo for SA? Likely that POR_355 in sa is mis labeled as POR_555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC-368 might be a typo - check; poc 368 is clear in the notebook… But not a real coral. </t>
+  </si>
+  <si>
+    <t>POR-254 might be a typo in sym counts - check; ACR-245 might be a typo in chl - check; but says changed to POR-298 in metadata? POR-245 listed in chl for plate1 A11-12 - typo corrected</t>
+  </si>
+  <si>
+    <t>Typo - in notebook written as ACR-390, but entered in datasheet as ACR-364</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1126,7 @@
   <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -10268,9 +10286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77009AC-EDAD-2244-A553-6617E39CB99E}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15343,9 +15361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4259132-52BB-2B40-86FD-2A50319D60A8}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15992,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -16179,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -16366,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -16543,11 +16561,14 @@
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33" s="9" t="b">
+      <c r="J33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -16727,7 +16748,7 @@
       <c r="I38" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J38" t="b">
+      <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="9" t="b">
@@ -18386,7 +18407,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -18598,6 +18619,9 @@
       <c r="K90" t="b">
         <v>1</v>
       </c>
+      <c r="L90" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -19018,6 +19042,9 @@
       <c r="K102" t="b">
         <v>1</v>
       </c>
+      <c r="L102" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
@@ -19273,7 +19300,7 @@
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -19596,12 +19623,15 @@
       <c r="K118" t="b">
         <v>1</v>
       </c>
+      <c r="L118" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C119" t="b">
@@ -19613,8 +19643,8 @@
       <c r="E119" t="b">
         <v>1</v>
       </c>
-      <c r="F119" s="9" t="b">
-        <v>0</v>
+      <c r="F119" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -19622,7 +19652,7 @@
       <c r="H119" t="b">
         <v>1</v>
       </c>
-      <c r="I119" s="9" t="b">
+      <c r="I119" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J119" t="b">
@@ -19630,6 +19660,9 @@
       </c>
       <c r="K119" t="b">
         <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -20048,7 +20081,7 @@
       <c r="I131" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J131" s="2" t="b">
+      <c r="J131" s="9" t="b">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="b">
@@ -20163,7 +20196,7 @@
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -20341,7 +20374,7 @@
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -20447,6 +20480,9 @@
       </c>
       <c r="K142" t="b">
         <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">

--- a/metadata/E5_QC.xlsx
+++ b/metadata/E5_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/timeseries/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE75017-DC8C-544A-90F6-C520F051DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4152E-CF6F-9E4B-B215-2CE3E8C5BCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37380" yWindow="-2080" windowWidth="25040" windowHeight="19760" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
+    <workbookView xWindow="-37580" yWindow="-2000" windowWidth="25040" windowHeight="19760" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Color key" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="213">
   <si>
     <t>ANSWER</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t>Typo - in notebook written as ACR-390, but entered in datasheet as ACR-364</t>
+  </si>
+  <si>
+    <t>CHECK ALL PLATEMAPS</t>
+  </si>
+  <si>
+    <t>PLATEMAPS DON’T MATCH NOTEBOOK</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -773,6 +779,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10288,7 +10295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15359,16 +15366,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4259132-52BB-2B40-86FD-2A50319D60A8}">
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -15393,14 +15403,14 @@
       <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="13" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15428,7 +15438,7 @@
       <c r="I2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="b">
+      <c r="J2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="b">
@@ -15437,8 +15447,12 @@
       <c r="L2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15466,14 +15480,19 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="b">
+      <c r="J3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15501,14 +15520,14 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="9" t="b">
+      <c r="J4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15536,14 +15555,14 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="b">
+      <c r="J5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15571,7 +15590,7 @@
       <c r="I6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="b">
+      <c r="J6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="b">
@@ -15581,7 +15600,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15609,14 +15628,14 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="9" t="b">
+      <c r="J7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15644,14 +15663,14 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" t="b">
+      <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15679,14 +15698,14 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="b">
+      <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15714,7 +15733,7 @@
       <c r="I10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="b">
+      <c r="J10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="2" t="b">
@@ -15724,7 +15743,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15752,14 +15771,14 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="J11" t="b">
+      <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15787,14 +15806,14 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12" t="b">
+      <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15822,14 +15841,14 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="J13" t="b">
+      <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15857,14 +15876,14 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" t="b">
+      <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15892,7 +15911,7 @@
       <c r="I15" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J15" t="b">
+      <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="9" t="b">
@@ -15902,7 +15921,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15930,7 +15949,7 @@
       <c r="I16" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J16" t="b">
+      <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="9" t="b">
@@ -15968,7 +15987,7 @@
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="J17" t="b">
+      <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="b">
@@ -16003,7 +16022,7 @@
       <c r="I18" t="b">
         <v>1</v>
       </c>
-      <c r="J18" s="9" t="b">
+      <c r="J18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
@@ -16041,7 +16060,7 @@
       <c r="I19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="b">
+      <c r="J19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
@@ -16079,7 +16098,7 @@
       <c r="I20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="2" t="b">
+      <c r="J20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="b">
@@ -16117,7 +16136,7 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-      <c r="J21" t="b">
+      <c r="J21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
@@ -16152,7 +16171,7 @@
       <c r="I22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="2" t="b">
+      <c r="J22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K22" s="2" t="b">
@@ -16190,7 +16209,7 @@
       <c r="I23" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="9" t="b">
+      <c r="J23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
@@ -16228,7 +16247,7 @@
       <c r="I24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="2" t="b">
+      <c r="J24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="b">
@@ -16266,7 +16285,7 @@
       <c r="I25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J25" t="b">
+      <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="9" t="b">
@@ -16304,7 +16323,7 @@
       <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="J26" t="b">
+      <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="b">
@@ -16339,7 +16358,7 @@
       <c r="I27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="2" t="b">
+      <c r="J27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="b">
@@ -16377,7 +16396,7 @@
       <c r="I28" t="b">
         <v>1</v>
       </c>
-      <c r="J28" t="b">
+      <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="b">
@@ -16415,7 +16434,7 @@
       <c r="I29" t="b">
         <v>1</v>
       </c>
-      <c r="J29" t="b">
+      <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="b">
@@ -16450,7 +16469,7 @@
       <c r="I30" t="b">
         <v>1</v>
       </c>
-      <c r="J30" t="b">
+      <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="b">
@@ -16485,7 +16504,7 @@
       <c r="I31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="2" t="b">
+      <c r="J31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="b">
@@ -16523,7 +16542,7 @@
       <c r="I32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="2" t="b">
+      <c r="J32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="b">
@@ -16562,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -16599,7 +16618,7 @@
       <c r="I34" t="b">
         <v>1</v>
       </c>
-      <c r="J34" s="9" t="b">
+      <c r="J34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
@@ -16634,7 +16653,7 @@
       <c r="I35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J35" s="2" t="b">
+      <c r="J35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="b">
@@ -16672,7 +16691,7 @@
       <c r="I36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J36" s="2" t="b">
+      <c r="J36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="b">
@@ -16710,7 +16729,7 @@
       <c r="I37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="2" t="b">
+      <c r="J37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="b">
@@ -16786,7 +16805,7 @@
       <c r="I39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J39" s="2" t="b">
+      <c r="J39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="b">
@@ -16824,7 +16843,7 @@
       <c r="I40" t="b">
         <v>1</v>
       </c>
-      <c r="J40" s="9" t="b">
+      <c r="J40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
@@ -16862,7 +16881,7 @@
       <c r="I41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J41" s="2" t="b">
+      <c r="J41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="2" t="b">
@@ -16900,7 +16919,7 @@
       <c r="I42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J42" s="2" t="b">
+      <c r="J42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="2" t="b">
@@ -16938,7 +16957,7 @@
       <c r="I43" t="b">
         <v>1</v>
       </c>
-      <c r="J43" s="9" t="b">
+      <c r="J43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
@@ -16973,7 +16992,7 @@
       <c r="I44" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J44" s="2" t="b">
+      <c r="J44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="2" t="b">
@@ -17011,7 +17030,7 @@
       <c r="I45" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J45" s="2" t="b">
+      <c r="J45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="b">
@@ -17049,7 +17068,7 @@
       <c r="I46" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J46" s="2" t="b">
+      <c r="J46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="2" t="b">
@@ -17087,7 +17106,7 @@
       <c r="I47" t="b">
         <v>1</v>
       </c>
-      <c r="J47" t="b">
+      <c r="J47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="b">
@@ -17122,7 +17141,7 @@
       <c r="I48" t="b">
         <v>1</v>
       </c>
-      <c r="J48" s="9" t="b">
+      <c r="J48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
@@ -17157,7 +17176,7 @@
       <c r="I49" t="b">
         <v>1</v>
       </c>
-      <c r="J49" t="b">
+      <c r="J49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="b">
@@ -17192,7 +17211,7 @@
       <c r="I50" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J50" s="2" t="b">
+      <c r="J50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K50" s="2" t="b">
@@ -17230,7 +17249,7 @@
       <c r="I51" t="b">
         <v>1</v>
       </c>
-      <c r="J51" t="b">
+      <c r="J51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="b">
@@ -17265,7 +17284,7 @@
       <c r="I52" t="b">
         <v>1</v>
       </c>
-      <c r="J52" t="b">
+      <c r="J52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="b">
@@ -17300,7 +17319,7 @@
       <c r="I53" t="b">
         <v>1</v>
       </c>
-      <c r="J53" t="b">
+      <c r="J53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="b">
@@ -17335,7 +17354,7 @@
       <c r="I54" t="b">
         <v>1</v>
       </c>
-      <c r="J54" t="b">
+      <c r="J54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K54" t="b">
@@ -17370,7 +17389,7 @@
       <c r="I55" t="b">
         <v>1</v>
       </c>
-      <c r="J55" t="b">
+      <c r="J55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="b">
@@ -17405,7 +17424,7 @@
       <c r="I56" t="b">
         <v>1</v>
       </c>
-      <c r="J56" t="b">
+      <c r="J56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K56" t="b">
@@ -17440,7 +17459,7 @@
       <c r="I57" t="b">
         <v>1</v>
       </c>
-      <c r="J57" s="9" t="b">
+      <c r="J57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
@@ -17475,7 +17494,7 @@
       <c r="I58" t="b">
         <v>1</v>
       </c>
-      <c r="J58" t="b">
+      <c r="J58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K58" t="b">
@@ -17510,7 +17529,7 @@
       <c r="I59" t="b">
         <v>1</v>
       </c>
-      <c r="J59" t="b">
+      <c r="J59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="b">
@@ -17545,7 +17564,7 @@
       <c r="I60" t="b">
         <v>1</v>
       </c>
-      <c r="J60" t="b">
+      <c r="J60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="b">
@@ -17580,7 +17599,7 @@
       <c r="I61" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J61" s="2" t="b">
+      <c r="J61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="b">
@@ -17618,7 +17637,7 @@
       <c r="I62" t="b">
         <v>1</v>
       </c>
-      <c r="J62" t="b">
+      <c r="J62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="b">
@@ -17653,7 +17672,7 @@
       <c r="I63" t="b">
         <v>1</v>
       </c>
-      <c r="J63" t="b">
+      <c r="J63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="b">
@@ -17688,7 +17707,7 @@
       <c r="I64" t="b">
         <v>1</v>
       </c>
-      <c r="J64" t="b">
+      <c r="J64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="b">
@@ -17723,7 +17742,7 @@
       <c r="I65" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J65" t="b">
+      <c r="J65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K65" s="9" t="b">
@@ -17761,7 +17780,7 @@
       <c r="I66" t="b">
         <v>1</v>
       </c>
-      <c r="J66" t="b">
+      <c r="J66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="b">
@@ -17796,7 +17815,7 @@
       <c r="I67" t="b">
         <v>1</v>
       </c>
-      <c r="J67" t="b">
+      <c r="J67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="b">
@@ -17831,7 +17850,7 @@
       <c r="I68" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J68" s="2" t="b">
+      <c r="J68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K68" s="2" t="b">
@@ -17869,7 +17888,7 @@
       <c r="I69" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J69" s="2" t="b">
+      <c r="J69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K69" s="2" t="b">
@@ -17907,7 +17926,7 @@
       <c r="I70" t="b">
         <v>1</v>
       </c>
-      <c r="J70" t="b">
+      <c r="J70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="b">
@@ -17942,7 +17961,7 @@
       <c r="I71" t="b">
         <v>1</v>
       </c>
-      <c r="J71" t="b">
+      <c r="J71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="b">
@@ -17977,7 +17996,7 @@
       <c r="I72" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J72" s="9" t="b">
+      <c r="J72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K72" s="9" t="b">
@@ -18015,7 +18034,7 @@
       <c r="I73" t="b">
         <v>1</v>
       </c>
-      <c r="J73" t="b">
+      <c r="J73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="b">
@@ -18050,7 +18069,7 @@
       <c r="I74" t="b">
         <v>1</v>
       </c>
-      <c r="J74" t="b">
+      <c r="J74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="b">
@@ -18085,7 +18104,7 @@
       <c r="I75" t="b">
         <v>1</v>
       </c>
-      <c r="J75" t="b">
+      <c r="J75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="b">
@@ -18120,7 +18139,7 @@
       <c r="I76" t="b">
         <v>1</v>
       </c>
-      <c r="J76" t="b">
+      <c r="J76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="b">
@@ -18155,7 +18174,7 @@
       <c r="I77" t="b">
         <v>1</v>
       </c>
-      <c r="J77" t="b">
+      <c r="J77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="b">
@@ -18190,7 +18209,7 @@
       <c r="I78" t="b">
         <v>1</v>
       </c>
-      <c r="J78" t="b">
+      <c r="J78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="b">
@@ -18225,7 +18244,7 @@
       <c r="I79" t="b">
         <v>1</v>
       </c>
-      <c r="J79" t="b">
+      <c r="J79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="b">
@@ -18260,7 +18279,7 @@
       <c r="I80" t="b">
         <v>1</v>
       </c>
-      <c r="J80" s="9" t="b">
+      <c r="J80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
@@ -18295,7 +18314,7 @@
       <c r="I81" t="b">
         <v>1</v>
       </c>
-      <c r="J81" t="b">
+      <c r="J81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="b">
@@ -18330,7 +18349,7 @@
       <c r="I82" t="b">
         <v>1</v>
       </c>
-      <c r="J82" t="b">
+      <c r="J82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="b">
@@ -18365,7 +18384,7 @@
       <c r="I83" t="b">
         <v>1</v>
       </c>
-      <c r="J83" t="b">
+      <c r="J83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="b">
@@ -18400,7 +18419,7 @@
       <c r="I84" t="b">
         <v>1</v>
       </c>
-      <c r="J84" t="b">
+      <c r="J84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K84" s="4" t="b">
@@ -18438,7 +18457,7 @@
       <c r="I85" t="b">
         <v>1</v>
       </c>
-      <c r="J85" t="b">
+      <c r="J85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="b">
@@ -18473,7 +18492,7 @@
       <c r="I86" t="b">
         <v>1</v>
       </c>
-      <c r="J86" t="b">
+      <c r="J86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="b">
@@ -18508,7 +18527,7 @@
       <c r="I87" t="b">
         <v>1</v>
       </c>
-      <c r="J87" t="b">
+      <c r="J87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="b">
@@ -18543,7 +18562,7 @@
       <c r="I88" t="b">
         <v>1</v>
       </c>
-      <c r="J88" t="b">
+      <c r="J88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="b">
@@ -18578,7 +18597,7 @@
       <c r="I89" t="b">
         <v>1</v>
       </c>
-      <c r="J89" t="b">
+      <c r="J89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="b">
@@ -18613,7 +18632,7 @@
       <c r="I90" t="b">
         <v>1</v>
       </c>
-      <c r="J90" t="b">
+      <c r="J90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="b">
@@ -18651,7 +18670,7 @@
       <c r="I91" t="b">
         <v>1</v>
       </c>
-      <c r="J91" t="b">
+      <c r="J91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="b">
@@ -18686,7 +18705,7 @@
       <c r="I92" t="b">
         <v>1</v>
       </c>
-      <c r="J92" t="b">
+      <c r="J92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K92" t="b">
@@ -18721,7 +18740,7 @@
       <c r="I93" t="b">
         <v>1</v>
       </c>
-      <c r="J93" s="9" t="b">
+      <c r="J93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
@@ -18756,7 +18775,7 @@
       <c r="I94" t="b">
         <v>1</v>
       </c>
-      <c r="J94" t="b">
+      <c r="J94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="b">
@@ -18791,7 +18810,7 @@
       <c r="I95" t="b">
         <v>1</v>
       </c>
-      <c r="J95" t="b">
+      <c r="J95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="b">
@@ -18826,7 +18845,7 @@
       <c r="I96" t="b">
         <v>1</v>
       </c>
-      <c r="J96" t="b">
+      <c r="J96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="b">
@@ -18861,7 +18880,7 @@
       <c r="I97" t="b">
         <v>1</v>
       </c>
-      <c r="J97" t="b">
+      <c r="J97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="b">
@@ -18896,7 +18915,7 @@
       <c r="I98" t="b">
         <v>1</v>
       </c>
-      <c r="J98" t="b">
+      <c r="J98" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="b">
@@ -18931,7 +18950,7 @@
       <c r="I99" t="b">
         <v>1</v>
       </c>
-      <c r="J99" t="b">
+      <c r="J99" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="b">
@@ -18966,7 +18985,7 @@
       <c r="I100" t="b">
         <v>1</v>
       </c>
-      <c r="J100" t="b">
+      <c r="J100" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="b">
@@ -19001,7 +19020,7 @@
       <c r="I101" t="b">
         <v>1</v>
       </c>
-      <c r="J101" t="b">
+      <c r="J101" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="b">
@@ -19036,7 +19055,7 @@
       <c r="I102" t="b">
         <v>1</v>
       </c>
-      <c r="J102" t="b">
+      <c r="J102" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="b">
@@ -19074,7 +19093,7 @@
       <c r="I103" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J103" s="2" t="b">
+      <c r="J103" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="b">
@@ -19112,7 +19131,7 @@
       <c r="I104" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J104" s="2" t="b">
+      <c r="J104" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K104" s="2" t="b">
@@ -19150,7 +19169,7 @@
       <c r="I105" t="b">
         <v>1</v>
       </c>
-      <c r="J105" t="b">
+      <c r="J105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="b">
@@ -19185,7 +19204,7 @@
       <c r="I106" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J106" t="b">
+      <c r="J106" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K106" s="9" t="b">
@@ -19223,7 +19242,7 @@
       <c r="I107" t="b">
         <v>1</v>
       </c>
-      <c r="J107" t="b">
+      <c r="J107" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="b">
@@ -19258,7 +19277,7 @@
       <c r="I108" t="b">
         <v>1</v>
       </c>
-      <c r="J108" t="b">
+      <c r="J108" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K108" t="b">
@@ -19293,7 +19312,7 @@
       <c r="I109" t="b">
         <v>1</v>
       </c>
-      <c r="J109" t="b">
+      <c r="J109" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K109" s="4" t="b">
@@ -19331,7 +19350,7 @@
       <c r="I110" t="b">
         <v>1</v>
       </c>
-      <c r="J110" t="b">
+      <c r="J110" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="b">
@@ -19366,7 +19385,7 @@
       <c r="I111" t="b">
         <v>1</v>
       </c>
-      <c r="J111" t="b">
+      <c r="J111" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="b">
@@ -19401,7 +19420,7 @@
       <c r="I112" t="b">
         <v>1</v>
       </c>
-      <c r="J112" t="b">
+      <c r="J112" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="b">
@@ -19436,7 +19455,7 @@
       <c r="I113" t="b">
         <v>1</v>
       </c>
-      <c r="J113" t="b">
+      <c r="J113" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="b">
@@ -19471,7 +19490,7 @@
       <c r="I114" t="b">
         <v>1</v>
       </c>
-      <c r="J114" t="b">
+      <c r="J114" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="b">
@@ -19506,7 +19525,7 @@
       <c r="I115" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J115" s="2" t="b">
+      <c r="J115" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K115" s="2" t="b">
@@ -19544,7 +19563,7 @@
       <c r="I116" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J116" s="2" t="b">
+      <c r="J116" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K116" s="2" t="b">
@@ -19582,7 +19601,7 @@
       <c r="I117" t="b">
         <v>1</v>
       </c>
-      <c r="J117" t="b">
+      <c r="J117" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="b">
@@ -19617,7 +19636,7 @@
       <c r="I118" t="b">
         <v>1</v>
       </c>
-      <c r="J118" t="b">
+      <c r="J118" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K118" t="b">
@@ -19655,7 +19674,7 @@
       <c r="I119" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J119" t="b">
+      <c r="J119" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K119" t="b">
@@ -19693,7 +19712,7 @@
       <c r="I120" t="b">
         <v>1</v>
       </c>
-      <c r="J120" t="b">
+      <c r="J120" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="b">
@@ -19728,7 +19747,7 @@
       <c r="I121" t="b">
         <v>1</v>
       </c>
-      <c r="J121" t="b">
+      <c r="J121" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="b">
@@ -19763,7 +19782,7 @@
       <c r="I122" t="b">
         <v>1</v>
       </c>
-      <c r="J122" t="b">
+      <c r="J122" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="b">
@@ -19798,7 +19817,7 @@
       <c r="I123" t="b">
         <v>1</v>
       </c>
-      <c r="J123" t="b">
+      <c r="J123" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K123" t="b">
@@ -19833,7 +19852,7 @@
       <c r="I124" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J124" s="2" t="b">
+      <c r="J124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K124" s="2" t="b">
@@ -19871,7 +19890,7 @@
       <c r="I125" t="b">
         <v>1</v>
       </c>
-      <c r="J125" t="b">
+      <c r="J125" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K125" t="b">
@@ -19906,7 +19925,7 @@
       <c r="I126" t="b">
         <v>1</v>
       </c>
-      <c r="J126" t="b">
+      <c r="J126" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K126" t="b">
@@ -19941,7 +19960,7 @@
       <c r="I127" t="b">
         <v>1</v>
       </c>
-      <c r="J127" t="b">
+      <c r="J127" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K127" t="b">
@@ -19976,7 +19995,7 @@
       <c r="I128" t="b">
         <v>1</v>
       </c>
-      <c r="J128" t="b">
+      <c r="J128" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K128" t="b">
@@ -20011,7 +20030,7 @@
       <c r="I129" t="b">
         <v>1</v>
       </c>
-      <c r="J129" t="b">
+      <c r="J129" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K129" t="b">
@@ -20046,7 +20065,7 @@
       <c r="I130" t="b">
         <v>1</v>
       </c>
-      <c r="J130" t="b">
+      <c r="J130" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K130" t="b">
@@ -20081,7 +20100,7 @@
       <c r="I131" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J131" s="9" t="b">
+      <c r="J131" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="b">
@@ -20119,7 +20138,7 @@
       <c r="I132" t="b">
         <v>1</v>
       </c>
-      <c r="J132" t="b">
+      <c r="J132" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K132" t="b">
@@ -20154,7 +20173,7 @@
       <c r="I133" t="b">
         <v>1</v>
       </c>
-      <c r="J133" t="b">
+      <c r="J133" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K133" t="b">
@@ -20189,7 +20208,7 @@
       <c r="I134" t="b">
         <v>1</v>
       </c>
-      <c r="J134" t="b">
+      <c r="J134" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K134" t="b">
@@ -20227,7 +20246,7 @@
       <c r="I135" t="b">
         <v>1</v>
       </c>
-      <c r="J135" t="b">
+      <c r="J135" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="b">
@@ -20262,7 +20281,7 @@
       <c r="I136" t="b">
         <v>1</v>
       </c>
-      <c r="J136" t="b">
+      <c r="J136" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="b">
@@ -20297,7 +20316,7 @@
       <c r="I137" t="b">
         <v>1</v>
       </c>
-      <c r="J137" t="b">
+      <c r="J137" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K137" t="b">
@@ -20332,7 +20351,7 @@
       <c r="I138" t="b">
         <v>1</v>
       </c>
-      <c r="J138" t="b">
+      <c r="J138" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="b">
@@ -20367,7 +20386,7 @@
       <c r="I139" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J139" s="4" t="b">
+      <c r="J139" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K139" s="4" t="b">
@@ -20405,7 +20424,7 @@
       <c r="I140" t="b">
         <v>1</v>
       </c>
-      <c r="J140" t="b">
+      <c r="J140" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K140" t="b">
@@ -20440,7 +20459,7 @@
       <c r="I141" t="b">
         <v>1</v>
       </c>
-      <c r="J141" t="b">
+      <c r="J141" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="b">
@@ -20475,7 +20494,7 @@
       <c r="I142" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J142" t="b">
+      <c r="J142" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="b">
@@ -20513,7 +20532,7 @@
       <c r="I143" t="b">
         <v>1</v>
       </c>
-      <c r="J143" t="b">
+      <c r="J143" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="b">
@@ -20548,7 +20567,7 @@
       <c r="I144" t="b">
         <v>1</v>
       </c>
-      <c r="J144" t="b">
+      <c r="J144" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K144" t="b">
@@ -20583,7 +20602,7 @@
       <c r="I145" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J145" s="2" t="b">
+      <c r="J145" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="b">

--- a/metadata/E5_QC.xlsx
+++ b/metadata/E5_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/timeseries/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4152E-CF6F-9E4B-B215-2CE3E8C5BCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0743F57-52FB-B648-8707-1401F6886D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37580" yWindow="-2000" windowWidth="25040" windowHeight="19760" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
+    <workbookView xWindow="-37800" yWindow="-2080" windowWidth="24120" windowHeight="20080" activeTab="4" xr2:uid="{9DA2C447-80F7-4347-8868-AE0AC17FBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Color key" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="203">
   <si>
     <t>ANSWER</t>
   </si>
@@ -598,85 +598,55 @@
     <t xml:space="preserve">Not a mystery colony - was it processed for symb? Cannot find in notebook.  Seems that it wasn't processed. </t>
   </si>
   <si>
-    <t>ACR-370</t>
-  </si>
-  <si>
-    <t>ACR-376</t>
-  </si>
-  <si>
     <t>POC-232</t>
   </si>
   <si>
-    <t xml:space="preserve">Listed at POR251 in this time point </t>
-  </si>
-  <si>
-    <t>Not sampled except for molecular - so why is it present in TAC??</t>
-  </si>
-  <si>
-    <t>Not on sampled list - typo for protein?</t>
-  </si>
-  <si>
     <t>Only molecular</t>
   </si>
   <si>
-    <t>This molecular sample is actually ACR-389; relabeled in molecular data sheet; ACR-374 wasn't sampled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular sample was put in ACR-370 bag; but this isn't in the molecular data sheet - where is it? </t>
-  </si>
-  <si>
-    <t>Not sampeld; One of the four colonies found without tags in Sept 2020 - retagged but couldn't trace identity until genotyped down the line</t>
-  </si>
-  <si>
-    <t>Not sampled; One of the four colonies found without tags in Sept 2020 - retagged but couldn't trace identity until genotyped down the line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not on sampled list - typo? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag changed to POC-230; POC-230 not in sample list? </t>
-  </si>
-  <si>
     <t>Now POR-296 ; has been referred to as POR_385 before and is same coral; POR-387 is in mystery, relabel these in data as POR-385; resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">ACR-256 and ACR-267 bags "swapped" in notebook? </t>
-  </si>
-  <si>
     <t>There is a POR-85 in the data, typo, in notebook. Resolved</t>
   </si>
   <si>
     <t>In notebook as plate 2 was a typo as "PCO" rather than "POC"; resolved</t>
   </si>
   <si>
-    <t>Not sampled for protein</t>
-  </si>
-  <si>
     <t>ACR-219 might be a typo - check</t>
   </si>
   <si>
-    <t>POC-76 might be a typo - check</t>
-  </si>
-  <si>
-    <t>POC-242 might be a typo - check</t>
-  </si>
-  <si>
-    <t>Phys frag put in POR-355 bag but 355 not sampled; maybe POR-555 is a typo for SA? Likely that POR_355 in sa is mis labeled as POR_555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POC-368 might be a typo - check; poc 368 is clear in the notebook… But not a real coral. </t>
-  </si>
-  <si>
-    <t>POR-254 might be a typo in sym counts - check; ACR-245 might be a typo in chl - check; but says changed to POR-298 in metadata? POR-245 listed in chl for plate1 A11-12 - typo corrected</t>
-  </si>
-  <si>
-    <t>Typo - in notebook written as ACR-390, but entered in datasheet as ACR-364</t>
-  </si>
-  <si>
-    <t>CHECK ALL PLATEMAPS</t>
-  </si>
-  <si>
-    <t>PLATEMAPS DON’T MATCH NOTEBOOK</t>
+    <t xml:space="preserve">ACR-256 and ACR-267 bags "swapped" in notebook?  Is the data accurate? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phys frag put in POR-355 bag but 355 not sampled; maybe POR-355 is a typo for SA? Likely that POR_355 in sa is a typo; resolved. </t>
+  </si>
+  <si>
+    <t>POC-368 might be a typo - check; poc 368 is clear in the notebook… But not a real coral. Likely a typo; changed to POC-378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrectly labeled as ACR-398, change to ACR-396 in data; SA typo is likely ACR-375, changed. </t>
+  </si>
+  <si>
+    <t>POC-242 might be a typo - check; resolved</t>
+  </si>
+  <si>
+    <t>POR-254 might be a typo in sym counts - check; ACR-245 might be a typo in chl - check; but says changed to POR-298 in metadata? POR-245 listed in chl for plate1 A11-12 - typo;  corrected</t>
+  </si>
+  <si>
+    <t>POC-76 might be a typo - resolved; host biomass only present</t>
+  </si>
+  <si>
+    <t>Molecular sample not taken</t>
+  </si>
+  <si>
+    <t>Not measured</t>
+  </si>
+  <si>
+    <t>In notebook as ACR-231; typo corrected</t>
+  </si>
+  <si>
+    <t>Not on sampled list - typo for ACR-237</t>
   </si>
 </sst>
 </file>
@@ -765,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -779,7 +749,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,7 +1102,7 @@
   <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -6050,7 +6019,7 @@
   <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -15366,19 +15335,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4259132-52BB-2B40-86FD-2A50319D60A8}">
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -15403,101 +15370,92 @@
       <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>170</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -15520,19 +15478,19 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="b">
-        <v>0</v>
+      <c r="J4" t="b">
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -15555,232 +15513,226 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="b">
-        <v>0</v>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -15806,165 +15758,162 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="1" t="b">
+      <c r="J12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>190</v>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
+        <v>115</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -15984,22 +15933,25 @@
       <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="b">
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>116</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -16022,63 +15974,57 @@
       <c r="I18" t="b">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="b">
+      <c r="J18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="b">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="b">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>0</v>
@@ -16098,14 +16044,14 @@
       <c r="I20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="b">
+      <c r="J20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -16113,7 +16059,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -16136,8 +16082,8 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="b">
-        <v>0</v>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -16145,13 +16091,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="b">
         <v>0</v>
@@ -16171,22 +16117,22 @@
       <c r="I22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="1" t="b">
+      <c r="J22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -16209,98 +16155,92 @@
       <c r="I23" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="b">
-        <v>0</v>
+      <c r="J23" t="b">
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>41</v>
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>190</v>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -16323,7 +16263,7 @@
       <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="J26" s="1" t="b">
+      <c r="J26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="b">
@@ -16332,121 +16272,121 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>170</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="b">
-        <v>1</v>
+      <c r="D28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -16469,7 +16409,7 @@
       <c r="I30" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="b">
+      <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="b">
@@ -16478,13 +16418,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="2" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="b">
         <v>0</v>
@@ -16504,97 +16444,94 @@
       <c r="I31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="1" t="b">
+      <c r="J31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>170</v>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
+      <c r="D33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="4" t="b">
@@ -16618,8 +16555,8 @@
       <c r="I34" t="b">
         <v>1</v>
       </c>
-      <c r="J34" s="1" t="b">
-        <v>0</v>
+      <c r="J34" t="b">
+        <v>1</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -16627,162 +16564,153 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>192</v>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>193</v>
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
-      <c r="D38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>190</v>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="b">
         <v>0</v>
@@ -16805,7 +16733,7 @@
       <c r="I39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J39" s="1" t="b">
+      <c r="J39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="b">
@@ -16817,19 +16745,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="9" t="b">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="9" t="b">
-        <v>0</v>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -16843,98 +16771,89 @@
       <c r="I40" t="b">
         <v>1</v>
       </c>
-      <c r="J40" s="1" t="b">
-        <v>0</v>
+      <c r="J40" t="b">
+        <v>1</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>170</v>
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>170</v>
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -16957,8 +16876,8 @@
       <c r="I43" t="b">
         <v>1</v>
       </c>
-      <c r="J43" s="1" t="b">
-        <v>0</v>
+      <c r="J43" t="b">
+        <v>1</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -16966,10 +16885,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="C44" s="2" t="b">
         <v>0</v>
@@ -16992,7 +16911,7 @@
       <c r="I44" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J44" s="1" t="b">
+      <c r="J44" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="2" t="b">
@@ -17004,86 +16923,80 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" t="s">
-        <v>170</v>
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>170</v>
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -17106,7 +17019,7 @@
       <c r="I47" t="b">
         <v>1</v>
       </c>
-      <c r="J47" s="1" t="b">
+      <c r="J47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="b">
@@ -17115,10 +17028,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -17141,19 +17054,22 @@
       <c r="I48" t="b">
         <v>1</v>
       </c>
-      <c r="J48" s="1" t="b">
+      <c r="J48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -17176,7 +17092,7 @@
       <c r="I49" t="b">
         <v>1</v>
       </c>
-      <c r="J49" s="1" t="b">
+      <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="b">
@@ -17185,48 +17101,45 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>170</v>
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -17249,7 +17162,7 @@
       <c r="I51" t="b">
         <v>1</v>
       </c>
-      <c r="J51" s="1" t="b">
+      <c r="J51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="b">
@@ -17258,10 +17171,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -17284,7 +17197,7 @@
       <c r="I52" t="b">
         <v>1</v>
       </c>
-      <c r="J52" s="1" t="b">
+      <c r="J52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="b">
@@ -17293,10 +17206,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -17319,7 +17232,7 @@
       <c r="I53" t="b">
         <v>1</v>
       </c>
-      <c r="J53" s="1" t="b">
+      <c r="J53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="b">
@@ -17328,10 +17241,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -17354,7 +17267,7 @@
       <c r="I54" t="b">
         <v>1</v>
       </c>
-      <c r="J54" s="1" t="b">
+      <c r="J54" t="b">
         <v>1</v>
       </c>
       <c r="K54" t="b">
@@ -17363,10 +17276,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -17389,7 +17302,7 @@
       <c r="I55" t="b">
         <v>1</v>
       </c>
-      <c r="J55" s="1" t="b">
+      <c r="J55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="b">
@@ -17398,10 +17311,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -17424,19 +17337,22 @@
       <c r="I56" t="b">
         <v>1</v>
       </c>
-      <c r="J56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -17459,8 +17375,8 @@
       <c r="I57" t="b">
         <v>1</v>
       </c>
-      <c r="J57" s="1" t="b">
-        <v>0</v>
+      <c r="J57" t="b">
+        <v>1</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -17468,10 +17384,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -17494,7 +17410,7 @@
       <c r="I58" t="b">
         <v>1</v>
       </c>
-      <c r="J58" s="1" t="b">
+      <c r="J58" t="b">
         <v>1</v>
       </c>
       <c r="K58" t="b">
@@ -17503,13 +17419,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="9" t="b">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -17529,7 +17445,7 @@
       <c r="I59" t="b">
         <v>1</v>
       </c>
-      <c r="J59" s="1" t="b">
+      <c r="J59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="b">
@@ -17538,10 +17454,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -17564,7 +17480,7 @@
       <c r="I60" t="b">
         <v>1</v>
       </c>
-      <c r="J60" s="1" t="b">
+      <c r="J60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="b">
@@ -17573,48 +17489,45 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
-        <v>170</v>
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -17622,7 +17535,7 @@
       <c r="D62" t="b">
         <v>1</v>
       </c>
-      <c r="E62" t="b">
+      <c r="E62" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="b">
@@ -17637,19 +17550,22 @@
       <c r="I62" t="b">
         <v>1</v>
       </c>
-      <c r="J62" s="1" t="b">
+      <c r="J62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -17672,7 +17588,7 @@
       <c r="I63" t="b">
         <v>1</v>
       </c>
-      <c r="J63" s="1" t="b">
+      <c r="J63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="b">
@@ -17681,10 +17597,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -17707,7 +17623,7 @@
       <c r="I64" t="b">
         <v>1</v>
       </c>
-      <c r="J64" s="1" t="b">
+      <c r="J64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="b">
@@ -17716,48 +17632,45 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
-        <v>197</v>
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -17780,7 +17693,7 @@
       <c r="I66" t="b">
         <v>1</v>
       </c>
-      <c r="J66" s="1" t="b">
+      <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="b">
@@ -17789,10 +17702,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -17815,7 +17728,7 @@
       <c r="I67" t="b">
         <v>1</v>
       </c>
-      <c r="J67" s="1" t="b">
+      <c r="J67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="b">
@@ -17824,86 +17737,83 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" t="s">
-        <v>170</v>
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -17926,7 +17836,7 @@
       <c r="I70" t="b">
         <v>1</v>
       </c>
-      <c r="J70" s="1" t="b">
+      <c r="J70" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="b">
@@ -17935,10 +17845,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -17961,7 +17871,7 @@
       <c r="I71" t="b">
         <v>1</v>
       </c>
-      <c r="J71" s="1" t="b">
+      <c r="J71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="b">
@@ -17970,48 +17880,45 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>198</v>
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -18034,7 +17941,7 @@
       <c r="I73" t="b">
         <v>1</v>
       </c>
-      <c r="J73" s="1" t="b">
+      <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="b">
@@ -18043,10 +17950,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -18069,7 +17976,7 @@
       <c r="I74" t="b">
         <v>1</v>
       </c>
-      <c r="J74" s="1" t="b">
+      <c r="J74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="b">
@@ -18078,10 +17985,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -18104,7 +18011,7 @@
       <c r="I75" t="b">
         <v>1</v>
       </c>
-      <c r="J75" s="1" t="b">
+      <c r="J75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="b">
@@ -18113,13 +18020,13 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" t="b">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -18139,19 +18046,22 @@
       <c r="I76" t="b">
         <v>1</v>
       </c>
-      <c r="J76" s="1" t="b">
+      <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -18174,7 +18084,7 @@
       <c r="I77" t="b">
         <v>1</v>
       </c>
-      <c r="J77" s="1" t="b">
+      <c r="J77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="b">
@@ -18183,10 +18093,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -18209,7 +18119,7 @@
       <c r="I78" t="b">
         <v>1</v>
       </c>
-      <c r="J78" s="1" t="b">
+      <c r="J78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="b">
@@ -18218,10 +18128,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -18244,7 +18154,7 @@
       <c r="I79" t="b">
         <v>1</v>
       </c>
-      <c r="J79" s="1" t="b">
+      <c r="J79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="b">
@@ -18253,11 +18163,11 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
@@ -18279,8 +18189,8 @@
       <c r="I80" t="b">
         <v>1</v>
       </c>
-      <c r="J80" s="1" t="b">
-        <v>0</v>
+      <c r="J80" t="b">
+        <v>1</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
@@ -18288,10 +18198,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -18314,7 +18224,7 @@
       <c r="I81" t="b">
         <v>1</v>
       </c>
-      <c r="J81" s="1" t="b">
+      <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="b">
@@ -18323,10 +18233,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -18349,7 +18259,7 @@
       <c r="I82" t="b">
         <v>1</v>
       </c>
-      <c r="J82" s="1" t="b">
+      <c r="J82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="b">
@@ -18358,10 +18268,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -18384,7 +18294,7 @@
       <c r="I83" t="b">
         <v>1</v>
       </c>
-      <c r="J83" s="1" t="b">
+      <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="b">
@@ -18393,11 +18303,11 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
@@ -18419,22 +18329,19 @@
       <c r="I84" t="b">
         <v>1</v>
       </c>
-      <c r="J84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K84" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>202</v>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -18457,7 +18364,7 @@
       <c r="I85" t="b">
         <v>1</v>
       </c>
-      <c r="J85" s="1" t="b">
+      <c r="J85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="b">
@@ -18466,15 +18373,15 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
         <v>93</v>
       </c>
+      <c r="B86" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
-      <c r="D86" t="b">
+      <c r="D86" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E86" t="b">
@@ -18492,20 +18399,23 @@
       <c r="I86" t="b">
         <v>1</v>
       </c>
-      <c r="J86" s="1" t="b">
+      <c r="J86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
         <v>94</v>
       </c>
+      <c r="B87" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
@@ -18515,7 +18425,7 @@
       <c r="E87" t="b">
         <v>1</v>
       </c>
-      <c r="F87" t="b">
+      <c r="F87" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="b">
@@ -18524,22 +18434,25 @@
       <c r="H87" t="b">
         <v>1</v>
       </c>
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" s="1" t="b">
+      <c r="I87" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -18562,7 +18475,7 @@
       <c r="I88" t="b">
         <v>1</v>
       </c>
-      <c r="J88" s="1" t="b">
+      <c r="J88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="b">
@@ -18571,10 +18484,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -18597,7 +18510,7 @@
       <c r="I89" t="b">
         <v>1</v>
       </c>
-      <c r="J89" s="1" t="b">
+      <c r="J89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="b">
@@ -18606,10 +18519,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>126</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -18617,8 +18530,8 @@
       <c r="D90" t="b">
         <v>1</v>
       </c>
-      <c r="E90" s="9" t="b">
-        <v>0</v>
+      <c r="E90" t="b">
+        <v>1</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
@@ -18632,22 +18545,19 @@
       <c r="I90" t="b">
         <v>1</v>
       </c>
-      <c r="J90" s="1" t="b">
+      <c r="J90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
-      </c>
-      <c r="L90" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -18670,7 +18580,7 @@
       <c r="I91" t="b">
         <v>1</v>
       </c>
-      <c r="J91" s="1" t="b">
+      <c r="J91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="b">
@@ -18679,10 +18589,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -18705,7 +18615,7 @@
       <c r="I92" t="b">
         <v>1</v>
       </c>
-      <c r="J92" s="1" t="b">
+      <c r="J92" t="b">
         <v>1</v>
       </c>
       <c r="K92" t="b">
@@ -18714,10 +18624,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>130</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -18740,8 +18650,8 @@
       <c r="I93" t="b">
         <v>1</v>
       </c>
-      <c r="J93" s="1" t="b">
-        <v>0</v>
+      <c r="J93" t="b">
+        <v>1</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
@@ -18749,10 +18659,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -18775,7 +18685,7 @@
       <c r="I94" t="b">
         <v>1</v>
       </c>
-      <c r="J94" s="1" t="b">
+      <c r="J94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="b">
@@ -18784,10 +18694,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -18810,7 +18720,7 @@
       <c r="I95" t="b">
         <v>1</v>
       </c>
-      <c r="J95" s="1" t="b">
+      <c r="J95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="b">
@@ -18819,10 +18729,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -18845,7 +18755,7 @@
       <c r="I96" t="b">
         <v>1</v>
       </c>
-      <c r="J96" s="1" t="b">
+      <c r="J96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="b">
@@ -18854,10 +18764,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -18880,7 +18790,7 @@
       <c r="I97" t="b">
         <v>1</v>
       </c>
-      <c r="J97" s="1" t="b">
+      <c r="J97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="b">
@@ -18889,10 +18799,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -18915,7 +18825,7 @@
       <c r="I98" t="b">
         <v>1</v>
       </c>
-      <c r="J98" s="1" t="b">
+      <c r="J98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="b">
@@ -18924,10 +18834,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -18950,7 +18860,7 @@
       <c r="I99" t="b">
         <v>1</v>
       </c>
-      <c r="J99" s="1" t="b">
+      <c r="J99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="b">
@@ -18959,10 +18869,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -18970,7 +18880,7 @@
       <c r="D100" t="b">
         <v>1</v>
       </c>
-      <c r="E100" t="b">
+      <c r="E100" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="b">
@@ -18985,19 +18895,22 @@
       <c r="I100" t="b">
         <v>1</v>
       </c>
-      <c r="J100" s="1" t="b">
+      <c r="J100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -19020,7 +18933,7 @@
       <c r="I101" t="b">
         <v>1</v>
       </c>
-      <c r="J101" s="1" t="b">
+      <c r="J101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="b">
@@ -19029,10 +18942,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -19046,8 +18959,8 @@
       <c r="F102" t="b">
         <v>1</v>
       </c>
-      <c r="G102" s="9" t="b">
-        <v>0</v>
+      <c r="G102" t="b">
+        <v>1</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -19055,100 +18968,91 @@
       <c r="I102" t="b">
         <v>1</v>
       </c>
-      <c r="J102" s="1" t="b">
+      <c r="J102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
-      </c>
-      <c r="L102" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" t="s">
-        <v>170</v>
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" t="s">
-        <v>170</v>
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" t="b">
+        <v>163</v>
+      </c>
+      <c r="C105" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D105" t="b">
@@ -19157,7 +19061,7 @@
       <c r="E105" t="b">
         <v>1</v>
       </c>
-      <c r="F105" t="b">
+      <c r="F105" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G105" t="b">
@@ -19166,60 +19070,60 @@
       <c r="H105" t="b">
         <v>1</v>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" s="1" t="b">
+      <c r="I105" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D106" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K106" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" t="s">
-        <v>197</v>
+        <v>74</v>
+      </c>
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -19242,7 +19146,7 @@
       <c r="I107" t="b">
         <v>1</v>
       </c>
-      <c r="J107" s="1" t="b">
+      <c r="J107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="b">
@@ -19251,10 +19155,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C108" t="b">
         <v>1</v>
@@ -19277,7 +19181,7 @@
       <c r="I108" t="b">
         <v>1</v>
       </c>
-      <c r="J108" s="1" t="b">
+      <c r="J108" t="b">
         <v>1</v>
       </c>
       <c r="K108" t="b">
@@ -19286,10 +19190,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
       </c>
       <c r="C109" t="b">
         <v>1</v>
@@ -19312,22 +19216,19 @@
       <c r="I109" t="b">
         <v>1</v>
       </c>
-      <c r="J109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K109" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="s">
-        <v>201</v>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -19350,7 +19251,7 @@
       <c r="I110" t="b">
         <v>1</v>
       </c>
-      <c r="J110" s="1" t="b">
+      <c r="J110" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="b">
@@ -19359,10 +19260,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C111" t="b">
         <v>1</v>
@@ -19385,7 +19286,7 @@
       <c r="I111" t="b">
         <v>1</v>
       </c>
-      <c r="J111" s="1" t="b">
+      <c r="J111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="b">
@@ -19394,10 +19295,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="C112" t="b">
         <v>1</v>
@@ -19420,7 +19321,7 @@
       <c r="I112" t="b">
         <v>1</v>
       </c>
-      <c r="J112" s="1" t="b">
+      <c r="J112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="b">
@@ -19429,10 +19330,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>118</v>
+        <v>81</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -19446,7 +19347,7 @@
       <c r="F113" t="b">
         <v>1</v>
       </c>
-      <c r="G113" t="b">
+      <c r="G113" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H113" t="b">
@@ -19455,19 +19356,22 @@
       <c r="I113" t="b">
         <v>1</v>
       </c>
-      <c r="J113" s="1" t="b">
+      <c r="J113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C114" t="b">
         <v>1</v>
@@ -19490,7 +19394,7 @@
       <c r="I114" t="b">
         <v>1</v>
       </c>
-      <c r="J114" s="1" t="b">
+      <c r="J114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="b">
@@ -19499,10 +19403,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="b">
         <v>0</v>
@@ -19525,7 +19429,7 @@
       <c r="I115" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J115" s="1" t="b">
+      <c r="J115" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K115" s="2" t="b">
@@ -19537,48 +19441,45 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" t="s">
-        <v>170</v>
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C117" t="b">
         <v>1</v>
@@ -19601,7 +19502,7 @@
       <c r="I117" t="b">
         <v>1</v>
       </c>
-      <c r="J117" s="1" t="b">
+      <c r="J117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="b">
@@ -19610,16 +19511,16 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="B118" t="s">
+        <v>114</v>
       </c>
       <c r="C118" t="b">
         <v>1</v>
       </c>
-      <c r="D118" s="9" t="b">
-        <v>0</v>
+      <c r="D118" t="b">
+        <v>1</v>
       </c>
       <c r="E118" t="b">
         <v>1</v>
@@ -19636,979 +19537,13 @@
       <c r="I118" t="b">
         <v>1</v>
       </c>
-      <c r="J118" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K118" t="b">
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D119" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" t="b">
-        <v>1</v>
-      </c>
-      <c r="F119" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="b">
-        <v>1</v>
-      </c>
-      <c r="I119" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" t="b">
-        <v>1</v>
-      </c>
-      <c r="D120" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" t="b">
-        <v>1</v>
-      </c>
-      <c r="F120" t="b">
-        <v>1</v>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="b">
-        <v>1</v>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" t="b">
-        <v>1</v>
-      </c>
-      <c r="D121" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" t="b">
-        <v>1</v>
-      </c>
-      <c r="F121" t="b">
-        <v>1</v>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" t="b">
-        <v>1</v>
-      </c>
-      <c r="D122" t="b">
-        <v>1</v>
-      </c>
-      <c r="E122" t="b">
-        <v>1</v>
-      </c>
-      <c r="F122" t="b">
-        <v>1</v>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="b">
-        <v>1</v>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" t="b">
-        <v>1</v>
-      </c>
-      <c r="D123" t="b">
-        <v>1</v>
-      </c>
-      <c r="E123" t="b">
-        <v>1</v>
-      </c>
-      <c r="F123" t="b">
-        <v>1</v>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" t="b">
-        <v>1</v>
-      </c>
-      <c r="D125" t="b">
-        <v>1</v>
-      </c>
-      <c r="E125" t="b">
-        <v>1</v>
-      </c>
-      <c r="F125" t="b">
-        <v>1</v>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="b">
-        <v>1</v>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>130</v>
-      </c>
-      <c r="C126" t="b">
-        <v>1</v>
-      </c>
-      <c r="D126" t="b">
-        <v>1</v>
-      </c>
-      <c r="E126" t="b">
-        <v>1</v>
-      </c>
-      <c r="F126" t="b">
-        <v>1</v>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="b">
-        <v>1</v>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>131</v>
-      </c>
-      <c r="C127" t="b">
-        <v>1</v>
-      </c>
-      <c r="D127" t="b">
-        <v>1</v>
-      </c>
-      <c r="E127" t="b">
-        <v>1</v>
-      </c>
-      <c r="F127" t="b">
-        <v>1</v>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="b">
-        <v>1</v>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>132</v>
-      </c>
-      <c r="C128" t="b">
-        <v>1</v>
-      </c>
-      <c r="D128" t="b">
-        <v>1</v>
-      </c>
-      <c r="E128" t="b">
-        <v>1</v>
-      </c>
-      <c r="F128" t="b">
-        <v>1</v>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="b">
-        <v>1</v>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" t="b">
-        <v>1</v>
-      </c>
-      <c r="D129" t="b">
-        <v>1</v>
-      </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
-      <c r="F129" t="b">
-        <v>1</v>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="b">
-        <v>1</v>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" t="b">
-        <v>1</v>
-      </c>
-      <c r="D130" t="b">
-        <v>1</v>
-      </c>
-      <c r="E130" t="b">
-        <v>1</v>
-      </c>
-      <c r="F130" t="b">
-        <v>1</v>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="b">
-        <v>1</v>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>135</v>
-      </c>
-      <c r="C132" t="b">
-        <v>1</v>
-      </c>
-      <c r="D132" t="b">
-        <v>1</v>
-      </c>
-      <c r="E132" t="b">
-        <v>1</v>
-      </c>
-      <c r="F132" t="b">
-        <v>1</v>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="b">
-        <v>1</v>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D133" t="b">
-        <v>1</v>
-      </c>
-      <c r="E133" t="b">
-        <v>1</v>
-      </c>
-      <c r="F133" t="b">
-        <v>1</v>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="b">
-        <v>1</v>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="b">
-        <v>1</v>
-      </c>
-      <c r="D134" t="b">
-        <v>1</v>
-      </c>
-      <c r="E134" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134" t="b">
-        <v>1</v>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="b">
-        <v>1</v>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" t="b">
-        <v>1</v>
-      </c>
-      <c r="D135" t="b">
-        <v>1</v>
-      </c>
-      <c r="E135" t="b">
-        <v>1</v>
-      </c>
-      <c r="F135" t="b">
-        <v>1</v>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="b">
-        <v>1</v>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>138</v>
-      </c>
-      <c r="C136" t="b">
-        <v>1</v>
-      </c>
-      <c r="D136" t="b">
-        <v>1</v>
-      </c>
-      <c r="E136" t="b">
-        <v>1</v>
-      </c>
-      <c r="F136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="b">
-        <v>1</v>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" t="b">
-        <v>1</v>
-      </c>
-      <c r="D137" t="b">
-        <v>1</v>
-      </c>
-      <c r="E137" t="b">
-        <v>1</v>
-      </c>
-      <c r="F137" t="b">
-        <v>1</v>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="b">
-        <v>1</v>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" t="b">
-        <v>1</v>
-      </c>
-      <c r="D138" t="b">
-        <v>1</v>
-      </c>
-      <c r="E138" t="b">
-        <v>1</v>
-      </c>
-      <c r="F138" t="b">
-        <v>1</v>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="b">
-        <v>1</v>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C139" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D139" t="b">
-        <v>1</v>
-      </c>
-      <c r="E139" t="b">
-        <v>1</v>
-      </c>
-      <c r="F139" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I139" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K139" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" t="b">
-        <v>1</v>
-      </c>
-      <c r="D140" t="b">
-        <v>1</v>
-      </c>
-      <c r="E140" t="b">
-        <v>1</v>
-      </c>
-      <c r="F140" t="b">
-        <v>1</v>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="b">
-        <v>1</v>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" t="b">
-        <v>1</v>
-      </c>
-      <c r="D141" t="b">
-        <v>1</v>
-      </c>
-      <c r="E141" t="b">
-        <v>1</v>
-      </c>
-      <c r="F141" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="b">
-        <v>1</v>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142" t="b">
-        <v>1</v>
-      </c>
-      <c r="D142" t="b">
-        <v>1</v>
-      </c>
-      <c r="E142" t="b">
-        <v>1</v>
-      </c>
-      <c r="F142" t="b">
-        <v>1</v>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="b">
-        <v>1</v>
-      </c>
-      <c r="I142" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>144</v>
-      </c>
-      <c r="C143" t="b">
-        <v>1</v>
-      </c>
-      <c r="D143" t="b">
-        <v>1</v>
-      </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
-      <c r="F143" t="b">
-        <v>1</v>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="b">
-        <v>1</v>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" t="b">
-        <v>1</v>
-      </c>
-      <c r="D144" t="b">
-        <v>1</v>
-      </c>
-      <c r="E144" t="b">
-        <v>1</v>
-      </c>
-      <c r="F144" t="b">
-        <v>1</v>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="b">
-        <v>1</v>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" t="s">
         <v>189</v>
       </c>
     </row>
